--- a/Test-数据结构.xlsx
+++ b/Test-数据结构.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PyCharm\workspace\exam-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E5D61-EF96-4F82-90B9-3CA06CB9BBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F1F38D-585B-4DBD-87FD-1B38C9445988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
   </bookViews>
   <sheets>
     <sheet name="单项选择题" sheetId="1" r:id="rId1"/>
     <sheet name="多项选择题" sheetId="2" r:id="rId2"/>
     <sheet name="判断题" sheetId="3" r:id="rId3"/>
+    <sheet name="主观题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +169,22 @@
   </si>
   <si>
     <t>BCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请简述最短路径算法，并证明之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请简述堆排序算法的主要思想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径算法答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序算法答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +566,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -837,7 +854,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -889,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -972,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5797D0A-D906-47EF-90CB-0041906F9717}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1052,4 +1069,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E2814-3D8F-4C70-A24C-B929CCD15FBE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>